--- a/cases/demos/D1 - single hub.xlsx
+++ b/cases/demos/D1 - single hub.xlsx
@@ -1163,7 +1163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>Capacity (kWh)</t>
   </si>
@@ -1650,12 +1650,6 @@
     <t>solar</t>
   </si>
   <si>
-    <t>wood</t>
-  </si>
-  <si>
-    <t>diesel</t>
-  </si>
-  <si>
     <t>0.32, 0.68</t>
   </si>
   <si>
@@ -1908,6 +1902,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2249,11 +2244,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109525632"/>
-        <c:axId val="109527424"/>
+        <c:axId val="46242816"/>
+        <c:axId val="49259648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109525632"/>
+        <c:axId val="46242816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2263,12 +2258,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109527424"/>
+        <c:crossAx val="49259648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109527424"/>
+        <c:axId val="49259648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2279,13 +2274,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109525632"/>
+        <c:crossAx val="46242816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2315,6 +2311,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2656,11 +2653,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109552768"/>
-        <c:axId val="109554304"/>
+        <c:axId val="56772096"/>
+        <c:axId val="58543104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109552768"/>
+        <c:axId val="56772096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2670,12 +2667,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109554304"/>
+        <c:crossAx val="58543104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109554304"/>
+        <c:axId val="58543104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2686,13 +2683,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109552768"/>
+        <c:crossAx val="56772096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3065,7 +3063,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3166,10 +3164,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3189,12 +3187,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -3205,16 +3203,6 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3227,10 +3215,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3293,37 +3281,12 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.21</v>
       </c>
       <c r="C6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7">
-        <v>0.11</v>
-      </c>
-      <c r="C7">
-        <v>0.23</v>
-      </c>
-      <c r="D7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8">
-        <v>0.21</v>
-      </c>
-      <c r="C8">
         <v>0.03</v>
       </c>
     </row>
@@ -3363,7 +3326,7 @@
     </row>
     <row r="4" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -3400,10 +3363,10 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4016,19 +3979,19 @@
         <v>49</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -4103,7 +4066,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
         <v>71</v>
@@ -4123,19 +4086,19 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -4168,7 +4131,7 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -4292,7 +4255,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4300,10 +4263,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
